--- a/Marching Orders.xlsx
+++ b/Marching Orders.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="8-19-2015" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">ToDoList[#All]</definedName>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
   <si>
     <t>High</t>
   </si>
@@ -92,13 +93,43 @@
   </si>
   <si>
     <t>see SRK Sample x:Bindings</t>
+  </si>
+  <si>
+    <t>Find already build client AND server code for Wow Xmog</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>Column3</t>
+  </si>
+  <si>
+    <t>Column4</t>
+  </si>
+  <si>
+    <t>Use Fallback on binding</t>
+  </si>
+  <si>
+    <t>Bing App Linking</t>
+  </si>
+  <si>
+    <t>Complete</t>
+  </si>
+  <si>
+    <t>Light Dark Theme / OS Color (from tweet)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
+  </numFmts>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -154,8 +185,14 @@
       <name val="Bookman Old Style"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1" tint="0.24994659260841701"/>
+      <name val="Franklin Gothic Medium"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -165,6 +202,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -221,7 +264,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -262,7 +305,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="4" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -274,34 +357,18 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="20">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
+  <dxfs count="22">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -337,6 +404,20 @@
         <scheme val="major"/>
       </font>
       <alignment vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <border>
@@ -483,20 +564,20 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="To-Do List" defaultPivotStyle="PivotStyleLight2">
     <tableStyle name="To Do List Pivot" table="0" count="11">
-      <tableStyleElement type="headerRow" dxfId="19"/>
-      <tableStyleElement type="totalRow" dxfId="18"/>
-      <tableStyleElement type="firstRowStripe" dxfId="17"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="16"/>
-      <tableStyleElement type="firstSubtotalColumn" dxfId="15"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="14"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="13"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="12"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="11"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="10"/>
-      <tableStyleElement type="pageFieldValues" dxfId="9"/>
+      <tableStyleElement type="headerRow" dxfId="21"/>
+      <tableStyleElement type="totalRow" dxfId="20"/>
+      <tableStyleElement type="firstRowStripe" dxfId="19"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="18"/>
+      <tableStyleElement type="firstSubtotalColumn" dxfId="17"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="16"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="14"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="13"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="12"/>
+      <tableStyleElement type="pageFieldValues" dxfId="11"/>
     </tableStyle>
     <tableStyle name="To-Do List" pivot="0" count="1">
-      <tableStyleElement type="wholeTable" dxfId="8"/>
+      <tableStyleElement type="wholeTable" dxfId="10"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -516,9 +597,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="ToDoList" displayName="ToDoList" ref="C5:J11" totalsRowShown="0" headerRowDxfId="7">
-  <autoFilter ref="C5:J11"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="ToDoList" displayName="ToDoList" ref="C5:N15" totalsRowShown="0" headerRowDxfId="7">
+  <autoFilter ref="C5:N15"/>
+  <tableColumns count="12">
     <tableColumn id="1" name="TASK"/>
     <tableColumn id="3" name="PRIORITY "/>
     <tableColumn id="4" name="STATUS "/>
@@ -529,6 +610,18 @@
       <calculatedColumnFormula>--(ToDoList[[#This Row],[% COMPLETE]]=1)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" name="NOTES"/>
+    <tableColumn id="2" name="Column1" dataDxfId="3">
+      <calculatedColumnFormula>ToDoList[% COMPLETE]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" name="Column2" dataDxfId="2">
+      <calculatedColumnFormula>ToDoList[[#This Row],[% COMPLETE]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" name="Column3" dataDxfId="1">
+      <calculatedColumnFormula>(ToDoList[[#This Row],[% COMPLETE]]=1)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" name="Column4" dataDxfId="0">
+      <calculatedColumnFormula>--(ToDoList[[#This Row],[% COMPLETE]]=1)</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="To-Do List" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -770,10 +863,10 @@
     <tabColor theme="4"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -786,10 +879,10 @@
     <col min="10" max="10" width="29.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6"/>
     </row>
-    <row r="3" spans="1:10" ht="48.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="48.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
@@ -801,8 +894,8 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" ht="9" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="9" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="10" t="s">
         <v>5</v>
       </c>
@@ -827,8 +920,20 @@
       <c r="J5" s="10" t="s">
         <v>11</v>
       </c>
+      <c r="K5" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5" s="14" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="30" x14ac:dyDescent="0.3">
       <c r="C6" s="13" t="s">
         <v>14</v>
       </c>
@@ -836,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="F6" s="8">
         <v>42235</v>
@@ -845,15 +950,31 @@
         <v>42235</v>
       </c>
       <c r="H6" s="3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I6" s="11">
         <f>--(ToDoList[[#This Row],[% COMPLETE]]=1)</f>
         <v>0</v>
       </c>
       <c r="J6" s="2"/>
+      <c r="K6">
+        <f>ToDoList[% COMPLETE]</f>
+        <v>0.5</v>
+      </c>
+      <c r="L6">
+        <f>ToDoList[[#This Row],[% COMPLETE]]</f>
+        <v>0.5</v>
+      </c>
+      <c r="M6" t="b">
+        <f>(ToDoList[[#This Row],[% COMPLETE]]=1)</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="15">
+        <f>--(ToDoList[[#This Row],[% COMPLETE]]=1)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="30" x14ac:dyDescent="0.3">
       <c r="C7" s="13" t="s">
         <v>15</v>
       </c>
@@ -861,7 +982,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="F7" s="8">
         <v>42235</v>
@@ -870,75 +991,125 @@
         <v>42235</v>
       </c>
       <c r="H7" s="3">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I7" s="11">
         <f>--(ToDoList[[#This Row],[% COMPLETE]]=1)</f>
         <v>0</v>
       </c>
       <c r="J7" s="2"/>
+      <c r="K7">
+        <f>ToDoList[% COMPLETE]</f>
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <f>ToDoList[[#This Row],[% COMPLETE]]</f>
+        <v>0</v>
+      </c>
+      <c r="M7" t="b">
+        <f>(ToDoList[[#This Row],[% COMPLETE]]=1)</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="15">
+        <f>--(ToDoList[[#This Row],[% COMPLETE]]=1)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.3">
-      <c r="C8" s="13" t="s">
+    <row r="8" spans="1:14" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A8" s="16"/>
+      <c r="C8" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="20">
+        <v>42235</v>
+      </c>
+      <c r="G8" s="20">
+        <v>42235</v>
+      </c>
+      <c r="H8" s="21">
+        <v>0.2</v>
+      </c>
+      <c r="I8" s="22">
+        <f>--(ToDoList[[#This Row],[% COMPLETE]]=1)</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="17">
+        <f>ToDoList[% COMPLETE]</f>
+        <v>0.2</v>
+      </c>
+      <c r="L8" s="17">
+        <f>ToDoList[[#This Row],[% COMPLETE]]</f>
+        <v>0.2</v>
+      </c>
+      <c r="M8" s="17" t="b">
+        <f>(ToDoList[[#This Row],[% COMPLETE]]=1)</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="23">
+        <f>--(ToDoList[[#This Row],[% COMPLETE]]=1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+      <c r="A9" s="16"/>
+      <c r="C9" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F9" s="20">
         <v>42235</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G9" s="20">
         <v>42235</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="14">
-        <f>--(ToDoList[[#This Row],[% COMPLETE]]=1)</f>
-        <v>0</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>21</v>
+      <c r="H9" s="21">
+        <v>0</v>
+      </c>
+      <c r="I9" s="24">
+        <f>--(ToDoList[[#This Row],[% COMPLETE]]=1)</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="19"/>
+      <c r="K9" s="17">
+        <f>ToDoList[% COMPLETE]</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="17">
+        <f>ToDoList[[#This Row],[% COMPLETE]]</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="17" t="b">
+        <f>(ToDoList[[#This Row],[% COMPLETE]]=1)</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="23">
+        <f>--(ToDoList[[#This Row],[% COMPLETE]]=1)</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.3">
-      <c r="C9" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="8">
-        <v>42235</v>
-      </c>
-      <c r="G9" s="8">
-        <v>42235</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="11">
-        <f>--(ToDoList[[#This Row],[% COMPLETE]]=1)</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="F10" s="8">
         <v>42235</v>
@@ -956,16 +1127,32 @@
       <c r="J10" t="s">
         <v>19</v>
       </c>
+      <c r="K10">
+        <f>ToDoList[% COMPLETE]</f>
+        <v>0.35</v>
+      </c>
+      <c r="L10">
+        <f>ToDoList[[#This Row],[% COMPLETE]]</f>
+        <v>0.35</v>
+      </c>
+      <c r="M10" t="b">
+        <f>(ToDoList[[#This Row],[% COMPLETE]]=1)</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="15">
+        <f>--(ToDoList[[#This Row],[% COMPLETE]]=1)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="F11" s="8">
         <v>42235</v>
@@ -974,22 +1161,187 @@
         <v>42235</v>
       </c>
       <c r="H11" s="7">
+        <v>0.35</v>
+      </c>
+      <c r="I11" s="12">
+        <f>--(ToDoList[[#This Row],[% COMPLETE]]=1)</f>
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11">
+        <f>ToDoList[% COMPLETE]</f>
+        <v>0.35</v>
+      </c>
+      <c r="L11">
+        <f>ToDoList[[#This Row],[% COMPLETE]]</f>
+        <v>0.35</v>
+      </c>
+      <c r="M11" t="b">
+        <f>(ToDoList[[#This Row],[% COMPLETE]]=1)</f>
+        <v>0</v>
+      </c>
+      <c r="N11" s="15">
+        <f>--(ToDoList[[#This Row],[% COMPLETE]]=1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="17" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="16"/>
+      <c r="C12" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="20">
+        <v>42235</v>
+      </c>
+      <c r="G12" s="20">
+        <v>42235</v>
+      </c>
+      <c r="H12" s="25">
         <v>0.05</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I12" s="26">
+        <f>--(ToDoList[[#This Row],[% COMPLETE]]=1)</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="17">
+        <f>ToDoList[% COMPLETE]</f>
+        <v>0.05</v>
+      </c>
+      <c r="L12" s="17">
+        <f>ToDoList[[#This Row],[% COMPLETE]]</f>
+        <v>0.05</v>
+      </c>
+      <c r="M12" s="17" t="b">
+        <f>(ToDoList[[#This Row],[% COMPLETE]]=1)</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="23">
+        <f>--(ToDoList[[#This Row],[% COMPLETE]]=1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="17" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="16"/>
+      <c r="C13" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="28">
+        <f>--(ToDoList[[#This Row],[% COMPLETE]]=1)</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="17">
+        <f>ToDoList[% COMPLETE]</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="17">
+        <f>ToDoList[[#This Row],[% COMPLETE]]</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="17" t="b">
+        <f>(ToDoList[[#This Row],[% COMPLETE]]=1)</f>
+        <v>0</v>
+      </c>
+      <c r="N13" s="23">
+        <f>--(ToDoList[[#This Row],[% COMPLETE]]=1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="17" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="16"/>
+      <c r="C14" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="28">
+        <f>--(ToDoList[[#This Row],[% COMPLETE]]=1)</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="17">
+        <f>ToDoList[% COMPLETE]</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="17">
+        <f>ToDoList[[#This Row],[% COMPLETE]]</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="17" t="b">
+        <f>(ToDoList[[#This Row],[% COMPLETE]]=1)</f>
+        <v>0</v>
+      </c>
+      <c r="N14" s="23">
+        <f>--(ToDoList[[#This Row],[% COMPLETE]]=1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="17" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="16"/>
+      <c r="C15" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="28">
+        <f>--(ToDoList[[#This Row],[% COMPLETE]]=1)</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="23">
+        <f>ToDoList[% COMPLETE]</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="23">
+        <f>ToDoList[[#This Row],[% COMPLETE]]</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="23" t="b">
+        <f>(ToDoList[[#This Row],[% COMPLETE]]=1)</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="23">
         <f>--(ToDoList[[#This Row],[% COMPLETE]]=1)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="C6:J11">
-    <cfRule type="expression" dxfId="3" priority="4">
+  <conditionalFormatting sqref="C6:J9 C11:J14">
+    <cfRule type="expression" dxfId="9" priority="7">
       <formula>$H6=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6:H11">
-    <cfRule type="dataBar" priority="6">
+  <conditionalFormatting sqref="H6:H9 H11:H14">
+    <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1002,17 +1354,36 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="E6:E11">
+  <conditionalFormatting sqref="C10:J10">
+    <cfRule type="expression" dxfId="8" priority="1">
+      <formula>$H10=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8BBD2541-D425-463E-AF3F-CEF00853FBC1}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations disablePrompts="1" count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="E6:E15">
       <formula1>"Not Started,In Progress, Deferred, Complete"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="H6:H11">
+    <dataValidation type="list" allowBlank="1" sqref="H6:H15">
       <formula1>"0%,25%,50%,75%,100%"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D6:D11">
+    <dataValidation type="list" allowBlank="1" sqref="D6:D15">
       <formula1>"Low, Normal, High"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Due Date" error="Your Due Date must be greater than or equal to the Start Date." sqref="G6:G11">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Due Date" error="Your Due Date must be greater than or equal to the Start Date." sqref="G6:G15">
       <formula1>G6&gt;=F6</formula1>
     </dataValidation>
   </dataValidations>
@@ -1038,10 +1409,21 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H6:H11</xm:sqref>
+          <xm:sqref>H6:H9 H11:H14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="7" id="{94681881-FBDE-4982-9C8F-A86810684A25}">
+          <x14:cfRule type="dataBar" id="{8BBD2541-D425-463E-AF3F-CEF00853FBC1}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="10" id="{94681881-FBDE-4982-9C8F-A86810684A25}">
             <x14:iconSet iconSet="3Symbols" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -1057,11 +1439,44 @@
               <x14:cfIcon iconSet="3Symbols" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>I6:I11</xm:sqref>
+          <xm:sqref>I6:I9 I11:I14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="3" id="{C913AC3F-77DD-4D2F-9A0C-5FB1C7CE7008}">
+            <x14:iconSet iconSet="3Symbols" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>33</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>67</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I10</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
